--- a/reddit.xlsx
+++ b/reddit.xlsx
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>

--- a/reddit.xlsx
+++ b/reddit.xlsx
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>

--- a/reddit.xlsx
+++ b/reddit.xlsx
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
